--- a/TemplateGOTests/data/table-chart.xlsx
+++ b/TemplateGOTests/data/table-chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\template-go\TemplateGOTests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D785AD3-7416-4D47-82D9-511E857D7806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888ACBC6-9EE1-4B92-A305-304B9AC2A4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="255" windowWidth="18300" windowHeight="14775" xr2:uid="{1FF4AB30-C56D-4952-8D75-2B4C64915CB0}"/>
+    <workbookView xWindow="10455" yWindow="345" windowWidth="18300" windowHeight="14775" xr2:uid="{1FF4AB30-C56D-4952-8D75-2B4C64915CB0}"/>
   </bookViews>
   <sheets>
     <sheet name="表格+图表" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>#index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,25 +145,6 @@
     <t>张佳</t>
   </si>
   <si>
-    <t>求和</t>
-  </si>
-  <si>
-    <t>平均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${title}${data|table:limit=10}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,9 +177,6 @@
   <si>
     <t>上方的内容不受影响</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列1</t>
   </si>
   <si>
     <t>${title|qr:fw=2.5cm}</t>
@@ -412,9 +390,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -436,6 +411,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -482,6 +460,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -489,15 +476,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1035,7 +1013,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>${title}</a:t>
+              <a:t>${school.name} - ${title}</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
@@ -1581,6 +1559,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1975809919"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1709,6 +1688,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-74BA-412C-B6A3-468483E133CA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1724,6 +1708,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-74BA-412C-B6A3-468483E133CA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1739,6 +1728,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-74BA-412C-B6A3-468483E133CA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1754,6 +1748,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-74BA-412C-B6A3-468483E133CA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1769,6 +1768,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-74BA-412C-B6A3-468483E133CA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -6502,6 +6506,38 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>${school.name}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -6614,7 +6650,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{14280B5F-CD09-4BA8-BCD7-3870786A75C1}" name="表2_5" displayName="表2_5" ref="B2:C7" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{14280B5F-CD09-4BA8-BCD7-3870786A75C1}" name="表2_5" displayName="表2_5" ref="B2:C7" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="B2:C7" xr:uid="{14280B5F-CD09-4BA8-BCD7-3870786A75C1}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3A7935C2-DF14-47BF-B7D0-BA38CE479FAC}" name="姓名" dataDxfId="1"/>
@@ -6923,7 +6959,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72A37D3-4890-49D9-838A-E8D91E57246F}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6933,77 +6971,77 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>39</v>
+      <c r="C2" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="8">
         <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5">
         <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="A15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -7025,7 +7063,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>24</v>
@@ -7245,40 +7283,40 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="s">
-        <v>48</v>
+      <c r="A57" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -7362,7 +7400,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -7391,7 +7429,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4">
         <v>235</v>
@@ -7399,7 +7437,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B6" s="4">
         <v>257</v>
@@ -7421,12 +7459,12 @@
   <sheetData>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
